--- a/pred_ohlcv/54_21/2020-01-21 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>864.19587735</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>863.75567735</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>839.00947735</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>740.33797735</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -782,7 +782,7 @@
         <v>738.1039582199998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>144.5784933999999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>255.6136933999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>254.8493933999999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>254.8493933999999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>284.8493933999999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>358.7720933999999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>359.2046933999999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>344.2046933999999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>344.2046933999999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>354.2046933999999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>354.2046933999999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>354.7046933999999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>354.7046933999999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>293.7317933999999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>293.7317933999999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>324.2055933999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>311.0038933999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>343.7286933999999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>343.7286933999999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>355.9293933999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>340.1318933999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>311.0025933999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>202.6117933999998</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>107.7000933999998</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6.761493399999843</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>8.180093399999842</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2.221993399999842</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>32.79029339999984</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>43.02439339999984</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>52.26029339999984</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>59.06946412999977</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>72.89606412999977</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>74.88276412999977</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-38.62823587000022</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>70.58656412999977</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>70.58656412999977</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>169.7072641299998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>96.61796412999976</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>74.69156412999976</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>77.69156412999976</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>62.73326412999976</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>83.78666306999976</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>83.28666306999976</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>62.23326306999977</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>43.40496306999977</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>25.43796306999977</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>105.8925630699998</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>32.14576306999977</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5.208136930000229</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-325.6579369300002</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-1544.599635620001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-1534.599635620001</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-1526.276535620001</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1516.276535620001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1513.812935620001</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1518.565935620001</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1653.835435620001</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-1664.573335620001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1724.805035620001</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1682.933235620001</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1248.46213562</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-931.4604356200007</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-715.9195356200007</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>864.19587735</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>863.75567735</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>839.00947735</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>740.33797735</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -782,7 +782,7 @@
         <v>738.1039582199998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>144.5784933999999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>255.6136933999999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>254.8493933999999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>254.8493933999999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>284.8493933999999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>358.7720933999999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>359.2046933999999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>344.2046933999999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>344.2046933999999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>354.2046933999999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>354.2046933999999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>354.7046933999999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>354.7046933999999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>293.7317933999999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>293.7317933999999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>324.2055933999999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>311.0038933999999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>343.7286933999999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>343.7286933999999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>355.9293933999999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>340.1318933999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>311.0025933999999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>202.6117933999998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>107.7000933999998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6.761493399999843</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>8.180093399999842</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2.221993399999842</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>32.79029339999984</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>43.02439339999984</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>52.26029339999984</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>59.06946412999977</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>72.89606412999977</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>74.88276412999977</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-38.62823587000022</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>70.58656412999977</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>70.58656412999977</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>169.7072641299998</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>79.38226412999977</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>96.61796412999976</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>74.69156412999976</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>77.69156412999976</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>62.73326412999976</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>83.78666306999976</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>83.28666306999976</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>62.23326306999977</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>43.40496306999977</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>25.43796306999977</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>105.8925630699998</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>32.14576306999977</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5.208136930000229</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-325.6579369300002</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-131.5667387500002</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-1544.599635620001</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-1534.599635620001</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-1526.276535620001</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1516.276535620001</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1513.812935620001</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1518.565935620001</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1653.835435620001</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-1664.573335620001</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1724.805035620001</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-1724.805035620001</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1248.46213562</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-931.4604356200007</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-715.9195356200007</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
